--- a/biology/Botanique/Viburnum_lentago/Viburnum_lentago.xlsx
+++ b/biology/Botanique/Viburnum_lentago/Viburnum_lentago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Viorne lentago[1] ou Viorne flexible (Viburnum lentago), alisier ou bourdaine est une espèce d’arbres de la famille des Caprifoliacées selon la classification classique de Cronquist (1981)[2] ou des Adoxacées selon la classification phylogénétique APG III (2009)[3][4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Viorne lentago ou Viorne flexible (Viburnum lentago), alisier ou bourdaine est une espèce d’arbres de la famille des Caprifoliacées selon la classification classique de Cronquist (1981) ou des Adoxacées selon la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
